--- a/data/coding/KEN_01_coder2.xlsx
+++ b/data/coding/KEN_01_coder2.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ncole\Google Drive\Work\Research\projects\current\Many Smiles Collaboration\analysis\data\coding\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80FE6150-873D-40C2-8571-5EA857F58C11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="coding" sheetId="1" r:id="rId4"/>
+    <sheet name="coding" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="456">
   <si>
     <t>aware_intv_q01</t>
   </si>
@@ -1421,37 +1430,42 @@
     <t>There was music in the background.
 There was an email notification.</t>
   </si>
+  <si>
+    <t>ResponseId</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-    </font>
-    <font>
-      <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1467,47 +1481,56 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf quotePrefix="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1697,2913 +1720,2916 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:G135"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="22.29"/>
-    <col customWidth="1" min="2" max="2" width="38.14"/>
-    <col customWidth="1" min="3" max="3" width="15.29"/>
-    <col customWidth="1" min="4" max="4" width="41.0"/>
-    <col customWidth="1" min="5" max="5" width="11.14"/>
-    <col customWidth="1" min="6" max="6" width="34.0"/>
-    <col customWidth="1" min="7" max="7" width="11.14"/>
+    <col min="1" max="1" width="22.26953125" customWidth="1"/>
+    <col min="2" max="2" width="38.08984375" customWidth="1"/>
+    <col min="3" max="3" width="15.26953125" customWidth="1"/>
+    <col min="4" max="4" width="41" customWidth="1"/>
+    <col min="5" max="5" width="11.08984375" customWidth="1"/>
+    <col min="6" max="6" width="34" customWidth="1"/>
+    <col min="7" max="7" width="11.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="2">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4">
-        <v>6.0</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="E2" s="3">
+        <v>6</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="s">
+      <c r="G2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="s">
+      <c r="G3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="s">
+      <c r="G4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="C5" s="2">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="F5" s="3" t="s">
+      <c r="E5" s="3">
+        <v>3</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="4">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="s">
+      <c r="G5" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="C6" s="2">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F6" s="3" t="s">
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="4">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="s">
+      <c r="G6" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F7" s="3" t="s">
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="4">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="s">
+      <c r="G7" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="s">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D9" s="3" t="s">
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F9" s="3" t="s">
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="4">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="s">
+      <c r="G9" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="s">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="3" t="s">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="D12" s="3" t="s">
+      <c r="C12" s="2">
+        <v>2</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F12" s="3" t="s">
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G12" s="4">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="3" t="s">
+      <c r="G12" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="3" t="s">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="3" t="s">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="D15" s="3" t="s">
+      <c r="C15" s="2">
+        <v>2</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F15" s="3" t="s">
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G15" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="3" t="s">
+      <c r="G15" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D16" s="3" t="s">
+      <c r="C16" s="2">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E16" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F16" s="3" t="s">
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G16" s="4">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="3" t="s">
+      <c r="G16" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="D17" s="3" t="s">
+      <c r="C17" s="2">
+        <v>2</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E17" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F17" s="3" t="s">
+      <c r="E17" s="3">
+        <v>2</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G17" s="4">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="3" t="s">
+      <c r="G17" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="D18" s="3" t="s">
+      <c r="C18" s="2">
+        <v>2</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E18" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F18" s="3" t="s">
+      <c r="E18" s="3">
+        <v>2</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G18" s="4">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="3" t="s">
+      <c r="G18" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C19" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D19" s="3" t="s">
+      <c r="C19" s="2">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E19" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F19" s="3" t="s">
+      <c r="E19" s="3">
+        <v>1</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G19" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="3" t="s">
+      <c r="G19" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="D20" s="3" t="s">
+      <c r="C20" s="2">
+        <v>2</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E20" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F20" s="3" t="s">
+      <c r="E20" s="3">
+        <v>1</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="G20" s="4">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="3" t="s">
+      <c r="G20" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C21" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="D21" s="3" t="s">
+      <c r="C21" s="2">
+        <v>2</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E21" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F21" s="3" t="s">
+      <c r="E21" s="3">
+        <v>1</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="G21" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="3" t="s">
+      <c r="G21" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C22" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="D22" s="3" t="s">
+      <c r="C22" s="2">
+        <v>2</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E22" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F22" s="3" t="s">
+      <c r="E22" s="3">
+        <v>1</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G22" s="4">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="3" t="s">
+      <c r="G22" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C23" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D23" s="3" t="s">
+      <c r="C23" s="2">
+        <v>1</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E23" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F23" s="3" t="s">
+      <c r="E23" s="3">
+        <v>1</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G23" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="3" t="s">
+      <c r="G23" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C24" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D24" s="3" t="s">
+      <c r="C24" s="2">
+        <v>1</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E24" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F24" s="3" t="s">
+      <c r="E24" s="3">
+        <v>1</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="G24" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="3" t="s">
+      <c r="G24" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="25" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C25" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D25" s="3" t="s">
+      <c r="C25" s="2">
+        <v>1</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E25" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F25" s="3" t="s">
+      <c r="E25" s="3">
+        <v>2</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="G25" s="4">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="3" t="s">
+      <c r="G25" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="25" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C26" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="D26" s="3" t="s">
+      <c r="C26" s="2">
+        <v>2</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E26" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F26" s="3" t="s">
+      <c r="E26" s="3">
+        <v>1</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="G26" s="4">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="3" t="s">
+      <c r="G26" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="25" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C27" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="D27" s="3" t="s">
+      <c r="C27" s="2">
+        <v>2</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E27" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F27" s="3" t="s">
+      <c r="E27" s="3">
+        <v>1</v>
+      </c>
+      <c r="F27" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="G27" s="4">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="3" t="s">
+      <c r="G27" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C28" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="D28" s="3" t="s">
+      <c r="C28" s="2">
+        <v>2</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E28" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F28" s="3" t="s">
+      <c r="E28" s="3">
+        <v>2</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="G28" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="3" t="s">
+      <c r="G28" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F29" s="3"/>
-      <c r="G29" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="3" t="s">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F29" s="2"/>
+      <c r="G29" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F30" s="3"/>
-      <c r="G30" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="3" t="s">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F30" s="2"/>
+      <c r="G30" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C31" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="D31" s="3" t="s">
+      <c r="C31" s="2">
+        <v>2</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E31" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F31" s="3" t="s">
+      <c r="E31" s="3">
+        <v>2</v>
+      </c>
+      <c r="F31" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G31" s="4">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="3" t="s">
+      <c r="G31" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C32" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="D32" s="3" t="s">
+      <c r="C32" s="2">
+        <v>2</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E32" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F32" s="3" t="s">
+      <c r="E32" s="3">
+        <v>1</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="G32" s="4">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="3" t="s">
+      <c r="G32" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="50" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C33" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D33" s="3" t="s">
+      <c r="C33" s="2">
+        <v>1</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E33" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F33" s="3" t="s">
+      <c r="E33" s="3">
+        <v>1</v>
+      </c>
+      <c r="F33" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="G33" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="3" t="s">
+      <c r="G33" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="50" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C34" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="D34" s="3" t="s">
+      <c r="C34" s="2">
+        <v>2</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E34" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F34" s="3" t="s">
+      <c r="E34" s="3">
+        <v>2</v>
+      </c>
+      <c r="F34" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="G34" s="4">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="3" t="s">
+      <c r="G34" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C35" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="D35" s="3" t="s">
+      <c r="C35" s="2">
+        <v>2</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E35" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F35" s="3" t="s">
+      <c r="E35" s="3">
+        <v>1</v>
+      </c>
+      <c r="F35" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G35" s="4">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="3" t="s">
+      <c r="G35" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F36" s="3"/>
-      <c r="G36" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="3" t="s">
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F36" s="2"/>
+      <c r="G36" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="25" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C37" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D37" s="3" t="s">
+      <c r="C37" s="2">
+        <v>1</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="E37" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F37" s="3" t="s">
+      <c r="E37" s="3">
+        <v>1</v>
+      </c>
+      <c r="F37" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="G37" s="4">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="3" t="s">
+      <c r="G37" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C38" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="D38" s="3" t="s">
+      <c r="C38" s="2">
+        <v>2</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E38" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F38" s="3" t="s">
+      <c r="E38" s="3">
+        <v>2</v>
+      </c>
+      <c r="F38" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="G38" s="4">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="3" t="s">
+      <c r="G38" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="25" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C39" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="D39" s="3" t="s">
+      <c r="C39" s="2">
+        <v>2</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="E39" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F39" s="3" t="s">
+      <c r="E39" s="3">
+        <v>1</v>
+      </c>
+      <c r="F39" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="G39" s="4">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="3" t="s">
+      <c r="G39" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F40" s="3"/>
-      <c r="G40" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="3" t="s">
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F40" s="2"/>
+      <c r="G40" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F41" s="3"/>
-      <c r="G41" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="3" t="s">
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F41" s="2"/>
+      <c r="G41" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C42" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="D42" s="3" t="s">
+      <c r="C42" s="2">
+        <v>2</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E42" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F42" s="3" t="s">
+      <c r="E42" s="3">
+        <v>1</v>
+      </c>
+      <c r="F42" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="G42" s="6">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="3" t="s">
+      <c r="G42" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F43" s="3"/>
-      <c r="G43" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="3" t="s">
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F43" s="2"/>
+      <c r="G43" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="25" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C44" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="D44" s="3" t="s">
+      <c r="C44" s="2">
+        <v>2</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E44" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="F44" s="3" t="s">
+      <c r="E44" s="3">
+        <v>3</v>
+      </c>
+      <c r="F44" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="G44" s="4">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="3" t="s">
+      <c r="G44" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="50" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C45" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="D45" s="3" t="s">
+      <c r="C45" s="2">
+        <v>2</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="E45" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F45" s="3" t="s">
+      <c r="E45" s="3">
+        <v>1</v>
+      </c>
+      <c r="F45" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="G45" s="4">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="3" t="s">
+      <c r="G45" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C46" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="D46" s="3" t="s">
+      <c r="C46" s="2">
+        <v>2</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E46" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F46" s="3" t="s">
+      <c r="E46" s="3">
+        <v>1</v>
+      </c>
+      <c r="F46" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="G46" s="4">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="3" t="s">
+      <c r="G46" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C47" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D47" s="3" t="s">
+      <c r="C47" s="2">
+        <v>1</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="E47" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F47" s="3" t="s">
+      <c r="E47" s="3">
+        <v>1</v>
+      </c>
+      <c r="F47" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="G47" s="4">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="3" t="s">
+      <c r="G47" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F48" s="3"/>
-      <c r="G48" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="3" t="s">
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F48" s="2"/>
+      <c r="G48" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F49" s="3"/>
-      <c r="G49" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="3" t="s">
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F49" s="2"/>
+      <c r="G49" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C50" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D50" s="3" t="s">
+      <c r="C50" s="2">
+        <v>1</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="E50" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F50" s="3" t="s">
+      <c r="E50" s="3">
+        <v>1</v>
+      </c>
+      <c r="F50" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="G50" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="3" t="s">
+      <c r="G50" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="25" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C51" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D51" s="3" t="s">
+      <c r="C51" s="2">
+        <v>1</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="E51" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F51" s="3" t="s">
+      <c r="E51" s="3">
+        <v>2</v>
+      </c>
+      <c r="F51" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="G51" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="3" t="s">
+      <c r="G51" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="25" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C52" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D52" s="3" t="s">
+      <c r="C52" s="2">
+        <v>1</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="E52" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F52" s="3" t="s">
+      <c r="E52" s="3">
+        <v>1</v>
+      </c>
+      <c r="F52" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="G52" s="4">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="3" t="s">
+      <c r="G52" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C53" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="D53" s="3" t="s">
+      <c r="C53" s="2">
+        <v>2</v>
+      </c>
+      <c r="D53" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="E53" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F53" s="3" t="s">
+      <c r="E53" s="3">
+        <v>1</v>
+      </c>
+      <c r="F53" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="G53" s="4">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="3" t="s">
+      <c r="G53" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C54" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="D54" s="3" t="s">
+      <c r="C54" s="2">
+        <v>2</v>
+      </c>
+      <c r="D54" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="E54" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F54" s="3" t="s">
+      <c r="E54" s="3">
+        <v>1</v>
+      </c>
+      <c r="F54" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="G54" s="4">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="3" t="s">
+      <c r="G54" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F55" s="3"/>
-      <c r="G55" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="3" t="s">
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F55" s="2"/>
+      <c r="G55" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F56" s="3"/>
-      <c r="G56" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="3" t="s">
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F56" s="2"/>
+      <c r="G56" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C57" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D57" s="3" t="s">
+      <c r="C57" s="2">
+        <v>1</v>
+      </c>
+      <c r="D57" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="E57" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F57" s="3" t="s">
+      <c r="E57" s="3">
+        <v>1</v>
+      </c>
+      <c r="F57" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="G57" s="4">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="3" t="s">
+      <c r="G57" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="25" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C58" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="D58" s="3" t="s">
+      <c r="C58" s="2">
+        <v>2</v>
+      </c>
+      <c r="D58" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="E58" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F58" s="3" t="s">
+      <c r="E58" s="3">
+        <v>1</v>
+      </c>
+      <c r="F58" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="G58" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="3" t="s">
+      <c r="G58" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="25" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C59" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D59" s="3" t="s">
+      <c r="C59" s="2">
+        <v>1</v>
+      </c>
+      <c r="D59" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="E59" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F59" s="3" t="s">
+      <c r="E59" s="3">
+        <v>1</v>
+      </c>
+      <c r="F59" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="G59" s="4">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="3" t="s">
+      <c r="G59" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C60" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="D60" s="3" t="s">
+      <c r="C60" s="2">
+        <v>2</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="E60" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F60" s="3" t="s">
+      <c r="E60" s="3">
+        <v>2</v>
+      </c>
+      <c r="F60" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="G60" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="3" t="s">
+      <c r="G60" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F61" s="3"/>
-      <c r="G61" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="3" t="s">
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F61" s="2"/>
+      <c r="G61" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="25" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="C62" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D62" s="3" t="s">
+      <c r="C62" s="2">
+        <v>1</v>
+      </c>
+      <c r="D62" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="E62" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F62" s="3" t="s">
+      <c r="E62" s="3">
+        <v>1</v>
+      </c>
+      <c r="F62" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="G62" s="4">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="3" t="s">
+      <c r="G62" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="C63" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D63" s="3" t="s">
+      <c r="C63" s="2">
+        <v>1</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="E63" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F63" s="3" t="s">
+      <c r="E63" s="3">
+        <v>1</v>
+      </c>
+      <c r="F63" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="G63" s="4">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="3" t="s">
+      <c r="G63" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="C64" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="D64" s="3" t="s">
+      <c r="C64" s="2">
+        <v>2</v>
+      </c>
+      <c r="D64" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="E64" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="F64" s="3" t="s">
+      <c r="E64" s="3">
+        <v>3</v>
+      </c>
+      <c r="F64" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="G64" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="3" t="s">
+      <c r="G64" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="25" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B65" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="C65" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D65" s="3" t="s">
+      <c r="C65" s="2">
+        <v>1</v>
+      </c>
+      <c r="D65" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="E65" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F65" s="3" t="s">
+      <c r="E65" s="3">
+        <v>2</v>
+      </c>
+      <c r="F65" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="G65" s="4">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="3" t="s">
+      <c r="G65" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="50" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B66" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="C66" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="D66" s="3" t="s">
+      <c r="C66" s="2">
+        <v>2</v>
+      </c>
+      <c r="D66" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="E66" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="F66" s="3" t="s">
+      <c r="E66" s="3">
+        <v>3</v>
+      </c>
+      <c r="F66" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="G66" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="3" t="s">
+      <c r="G66" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="50" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B67" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="C67" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="D67" s="3" t="s">
+      <c r="C67" s="2">
+        <v>2</v>
+      </c>
+      <c r="D67" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="E67" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F67" s="3" t="s">
+      <c r="E67" s="3">
+        <v>2</v>
+      </c>
+      <c r="F67" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="G67" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="3" t="s">
+      <c r="G67" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="B68" s="3"/>
-      <c r="C68" s="3"/>
-      <c r="D68" s="3"/>
-      <c r="E68" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F68" s="3"/>
-      <c r="G68" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="3" t="s">
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F68" s="2"/>
+      <c r="G68" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="B69" s="3"/>
-      <c r="C69" s="3"/>
-      <c r="D69" s="3"/>
-      <c r="E69" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F69" s="3"/>
-      <c r="G69" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="3" t="s">
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F69" s="2"/>
+      <c r="G69" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="50" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B70" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="C70" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="D70" s="3" t="s">
+      <c r="C70" s="2">
+        <v>2</v>
+      </c>
+      <c r="D70" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="E70" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F70" s="3" t="s">
+      <c r="E70" s="3">
+        <v>1</v>
+      </c>
+      <c r="F70" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="G70" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="3" t="s">
+      <c r="G70" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B71" s="3"/>
-      <c r="C71" s="3"/>
-      <c r="D71" s="3"/>
-      <c r="E71" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F71" s="3"/>
-      <c r="G71" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="3" t="s">
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F71" s="2"/>
+      <c r="G71" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="50" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B72" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="C72" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="D72" s="3" t="s">
+      <c r="C72" s="2">
+        <v>2</v>
+      </c>
+      <c r="D72" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="E72" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F72" s="3" t="s">
+      <c r="E72" s="3">
+        <v>1</v>
+      </c>
+      <c r="F72" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="G72" s="4">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="3" t="s">
+      <c r="G72" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B73" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="C73" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="D73" s="3" t="s">
+      <c r="C73" s="2">
+        <v>2</v>
+      </c>
+      <c r="D73" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="E73" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F73" s="3" t="s">
+      <c r="E73" s="3">
+        <v>1</v>
+      </c>
+      <c r="F73" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="G73" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="3" t="s">
+      <c r="G73" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="25" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B74" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="C74" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D74" s="3" t="s">
+      <c r="C74" s="2">
+        <v>1</v>
+      </c>
+      <c r="D74" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="E74" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F74" s="3" t="s">
+      <c r="E74" s="3">
+        <v>1</v>
+      </c>
+      <c r="F74" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="G74" s="4">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="3" t="s">
+      <c r="G74" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="25" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B75" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="C75" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="D75" s="3" t="s">
+      <c r="C75" s="2">
+        <v>2</v>
+      </c>
+      <c r="D75" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="E75" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F75" s="3" t="s">
+      <c r="E75" s="3">
+        <v>1</v>
+      </c>
+      <c r="F75" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="G75" s="4">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="3" t="s">
+      <c r="G75" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="25" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B76" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="C76" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="D76" s="3" t="s">
+      <c r="C76" s="2">
+        <v>2</v>
+      </c>
+      <c r="D76" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="E76" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F76" s="3" t="s">
+      <c r="E76" s="3">
+        <v>1</v>
+      </c>
+      <c r="F76" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="G76" s="4">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="3" t="s">
+      <c r="G76" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="B77" s="3"/>
-      <c r="C77" s="3"/>
-      <c r="D77" s="3"/>
-      <c r="E77" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F77" s="3"/>
-      <c r="G77" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="3" t="s">
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F77" s="2"/>
+      <c r="G77" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="B78" s="3"/>
-      <c r="C78" s="3"/>
-      <c r="D78" s="3"/>
-      <c r="E78" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F78" s="3"/>
-      <c r="G78" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="3" t="s">
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F78" s="2"/>
+      <c r="G78" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B79" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="C79" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="D79" s="3" t="s">
+      <c r="C79" s="2">
+        <v>2</v>
+      </c>
+      <c r="D79" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="E79" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F79" s="3" t="s">
+      <c r="E79" s="3">
+        <v>2</v>
+      </c>
+      <c r="F79" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="G79" s="4">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="3" t="s">
+      <c r="G79" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="B80" s="3"/>
-      <c r="C80" s="3"/>
-      <c r="D80" s="3"/>
-      <c r="E80" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F80" s="3"/>
-      <c r="G80" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="3" t="s">
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F80" s="2"/>
+      <c r="G80" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B81" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="C81" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="D81" s="3" t="s">
+      <c r="C81" s="2">
+        <v>2</v>
+      </c>
+      <c r="D81" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="E81" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="F81" s="3" t="s">
+      <c r="E81" s="3">
+        <v>3</v>
+      </c>
+      <c r="F81" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="G81" s="4">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="3" t="s">
+      <c r="G81" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="100" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="B82" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="C82" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="D82" s="3" t="s">
+      <c r="C82" s="2">
+        <v>2</v>
+      </c>
+      <c r="D82" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="E82" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="F82" s="3" t="s">
+      <c r="E82" s="3">
+        <v>4</v>
+      </c>
+      <c r="F82" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="G82" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="3" t="s">
+      <c r="G82" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="25" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="B83" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="C83" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="D83" s="3" t="s">
+      <c r="C83" s="2">
+        <v>2</v>
+      </c>
+      <c r="D83" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="E83" s="4">
-        <v>5.0</v>
-      </c>
-      <c r="F83" s="3" t="s">
+      <c r="E83" s="3">
+        <v>5</v>
+      </c>
+      <c r="F83" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="G83" s="4">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="3" t="s">
+      <c r="G83" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="25" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="B84" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="C84" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="D84" s="3" t="s">
+      <c r="C84" s="2">
+        <v>2</v>
+      </c>
+      <c r="D84" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="E84" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F84" s="3" t="s">
+      <c r="E84" s="3">
+        <v>1</v>
+      </c>
+      <c r="F84" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="G84" s="4">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="3" t="s">
+      <c r="G84" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="100" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="B85" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="C85" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D85" s="3" t="s">
+      <c r="C85" s="2">
+        <v>1</v>
+      </c>
+      <c r="D85" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="E85" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F85" s="3" t="s">
+      <c r="E85" s="3">
+        <v>2</v>
+      </c>
+      <c r="F85" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="G85" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="3" t="s">
+      <c r="G85" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="B86" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="C86" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D86" s="3" t="s">
+      <c r="C86" s="2">
+        <v>1</v>
+      </c>
+      <c r="D86" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="E86" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="F86" s="3" t="s">
+      <c r="E86" s="3">
+        <v>3</v>
+      </c>
+      <c r="F86" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="G86" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="3" t="s">
+      <c r="G86" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="25" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="B87" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="C87" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D87" s="3" t="s">
+      <c r="C87" s="2">
+        <v>1</v>
+      </c>
+      <c r="D87" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="E87" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F87" s="3" t="s">
+      <c r="E87" s="3">
+        <v>2</v>
+      </c>
+      <c r="F87" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="G87" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="3" t="s">
+      <c r="G87" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="B88" s="3"/>
-      <c r="C88" s="3"/>
-      <c r="D88" s="3"/>
-      <c r="E88" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F88" s="3"/>
-      <c r="G88" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="3" t="s">
+      <c r="B88" s="2"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F88" s="2"/>
+      <c r="G88" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="B89" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="C89" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="D89" s="3" t="s">
+      <c r="C89" s="2">
+        <v>2</v>
+      </c>
+      <c r="D89" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="E89" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F89" s="3" t="s">
+      <c r="E89" s="3">
+        <v>1</v>
+      </c>
+      <c r="F89" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="G89" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="3" t="s">
+      <c r="G89" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="B90" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="C90" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="D90" s="3" t="s">
+      <c r="C90" s="2">
+        <v>2</v>
+      </c>
+      <c r="D90" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="E90" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F90" s="3" t="s">
+      <c r="E90" s="3">
+        <v>2</v>
+      </c>
+      <c r="F90" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="G90" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="3" t="s">
+      <c r="G90" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="B91" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="C91" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D91" s="3" t="s">
+      <c r="C91" s="2">
+        <v>1</v>
+      </c>
+      <c r="D91" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="E91" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F91" s="3" t="s">
+      <c r="E91" s="3">
+        <v>1</v>
+      </c>
+      <c r="F91" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="G91" s="4">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="3" t="s">
+      <c r="G91" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="B92" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="C92" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="D92" s="3" t="s">
+      <c r="C92" s="2">
+        <v>2</v>
+      </c>
+      <c r="D92" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="E92" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F92" s="3" t="s">
+      <c r="E92" s="3">
+        <v>1</v>
+      </c>
+      <c r="F92" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="G92" s="4">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="3" t="s">
+      <c r="G92" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="50" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="B93" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="C93" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="D93" s="3" t="s">
+      <c r="C93" s="2">
+        <v>2</v>
+      </c>
+      <c r="D93" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="E93" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F93" s="3" t="s">
+      <c r="E93" s="3">
+        <v>1</v>
+      </c>
+      <c r="F93" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="G93" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="3" t="s">
+      <c r="G93" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="B94" s="3"/>
-      <c r="C94" s="3"/>
-      <c r="D94" s="3"/>
-      <c r="E94" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F94" s="3"/>
-      <c r="G94" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="3" t="s">
+      <c r="B94" s="2"/>
+      <c r="C94" s="2"/>
+      <c r="D94" s="2"/>
+      <c r="E94" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F94" s="2"/>
+      <c r="G94" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="B95" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="C95" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="D95" s="3" t="s">
+      <c r="C95" s="2">
+        <v>2</v>
+      </c>
+      <c r="D95" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="E95" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F95" s="3" t="s">
+      <c r="E95" s="3">
+        <v>1</v>
+      </c>
+      <c r="F95" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="G95" s="4">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="3" t="s">
+      <c r="G95" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="25" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="B96" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="C96" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="D96" s="3" t="s">
+      <c r="C96" s="2">
+        <v>2</v>
+      </c>
+      <c r="D96" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="E96" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F96" s="3" t="s">
+      <c r="E96" s="3">
+        <v>1</v>
+      </c>
+      <c r="F96" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="G96" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="3" t="s">
+      <c r="G96" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="B97" s="3" t="s">
+      <c r="B97" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="C97" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D97" s="3" t="s">
+      <c r="C97" s="2">
+        <v>1</v>
+      </c>
+      <c r="D97" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="E97" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F97" s="3" t="s">
+      <c r="E97" s="3">
+        <v>2</v>
+      </c>
+      <c r="F97" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="G97" s="4">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="3" t="s">
+      <c r="G97" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="B98" s="3" t="s">
+      <c r="B98" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="C98" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D98" s="3" t="s">
+      <c r="C98" s="2">
+        <v>1</v>
+      </c>
+      <c r="D98" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="E98" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F98" s="3" t="s">
+      <c r="E98" s="3">
+        <v>1</v>
+      </c>
+      <c r="F98" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="G98" s="4">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="3" t="s">
+      <c r="G98" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="50" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="B99" s="3" t="s">
+      <c r="B99" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="C99" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D99" s="3" t="s">
+      <c r="C99" s="2">
+        <v>1</v>
+      </c>
+      <c r="D99" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="E99" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F99" s="3" t="s">
+      <c r="E99" s="3">
+        <v>2</v>
+      </c>
+      <c r="F99" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="G99" s="4">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="3" t="s">
+      <c r="G99" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="B100" s="3" t="s">
+      <c r="B100" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="C100" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D100" s="3" t="s">
+      <c r="C100" s="2">
+        <v>1</v>
+      </c>
+      <c r="D100" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="E100" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F100" s="3" t="s">
+      <c r="E100" s="3">
+        <v>1</v>
+      </c>
+      <c r="F100" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="G100" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="3" t="s">
+      <c r="G100" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="50" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="B101" s="3" t="s">
+      <c r="B101" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="C101" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="D101" s="3" t="s">
+      <c r="C101" s="2">
+        <v>2</v>
+      </c>
+      <c r="D101" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="E101" s="4">
-        <v>6.0</v>
-      </c>
-      <c r="F101" s="3" t="s">
+      <c r="E101" s="3">
+        <v>6</v>
+      </c>
+      <c r="F101" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="G101" s="4">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="3" t="s">
+      <c r="G101" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="B102" s="3" t="s">
+      <c r="B102" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="C102" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="D102" s="3" t="s">
+      <c r="C102" s="2">
+        <v>2</v>
+      </c>
+      <c r="D102" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="E102" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F102" s="3" t="s">
+      <c r="E102" s="3">
+        <v>1</v>
+      </c>
+      <c r="F102" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G102" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="3" t="s">
+      <c r="G102" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="B103" s="3"/>
-      <c r="C103" s="3"/>
-      <c r="D103" s="3"/>
-      <c r="E103" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F103" s="3"/>
-      <c r="G103" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="3" t="s">
+      <c r="B103" s="2"/>
+      <c r="C103" s="2"/>
+      <c r="D103" s="2"/>
+      <c r="E103" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F103" s="2"/>
+      <c r="G103" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="B104" s="3" t="s">
+      <c r="B104" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="C104" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D104" s="3" t="s">
+      <c r="C104" s="2">
+        <v>1</v>
+      </c>
+      <c r="D104" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="E104" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F104" s="3" t="s">
+      <c r="E104" s="3">
+        <v>1</v>
+      </c>
+      <c r="F104" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="G104" s="4">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="3" t="s">
+      <c r="G104" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="B105" s="3" t="s">
+      <c r="B105" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="C105" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="D105" s="3" t="s">
+      <c r="C105" s="2">
+        <v>2</v>
+      </c>
+      <c r="D105" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="E105" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F105" s="3" t="s">
+      <c r="E105" s="3">
+        <v>1</v>
+      </c>
+      <c r="F105" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="G105" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="3" t="s">
+      <c r="G105" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="25" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="B106" s="3" t="s">
+      <c r="B106" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="C106" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="D106" s="3" t="s">
+      <c r="C106" s="2">
+        <v>2</v>
+      </c>
+      <c r="D106" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="E106" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F106" s="3" t="s">
+      <c r="E106" s="3">
+        <v>1</v>
+      </c>
+      <c r="F106" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="G106" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="3" t="s">
+      <c r="G106" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="B107" s="3" t="s">
+      <c r="B107" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="C107" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="D107" s="3" t="s">
+      <c r="C107" s="2">
+        <v>2</v>
+      </c>
+      <c r="D107" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="E107" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="F107" s="3" t="s">
+      <c r="E107" s="3">
+        <v>4</v>
+      </c>
+      <c r="F107" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="G107" s="4">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="3" t="s">
+      <c r="G107" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="25" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="B108" s="3" t="s">
+      <c r="B108" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="C108" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="D108" s="3" t="s">
+      <c r="C108" s="2">
+        <v>2</v>
+      </c>
+      <c r="D108" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="E108" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F108" s="3" t="s">
+      <c r="E108" s="3">
+        <v>2</v>
+      </c>
+      <c r="F108" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="G108" s="4">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="3" t="s">
+      <c r="G108" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="25" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="B109" s="3" t="s">
+      <c r="B109" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="C109" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D109" s="3" t="s">
+      <c r="C109" s="2">
+        <v>1</v>
+      </c>
+      <c r="D109" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="E109" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F109" s="3" t="s">
+      <c r="E109" s="3">
+        <v>1</v>
+      </c>
+      <c r="F109" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="G109" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="3" t="s">
+      <c r="G109" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="B110" s="3" t="s">
+      <c r="B110" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="C110" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="D110" s="3" t="s">
+      <c r="C110" s="2">
+        <v>2</v>
+      </c>
+      <c r="D110" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="E110" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F110" s="3" t="s">
+      <c r="E110" s="3">
+        <v>1</v>
+      </c>
+      <c r="F110" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G110" s="4">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="3" t="s">
+      <c r="G110" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="25" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="B111" s="3" t="s">
+      <c r="B111" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="C111" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D111" s="3" t="s">
+      <c r="C111" s="2">
+        <v>1</v>
+      </c>
+      <c r="D111" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="E111" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F111" s="3" t="s">
+      <c r="E111" s="3">
+        <v>1</v>
+      </c>
+      <c r="F111" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="G111" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="3" t="s">
+      <c r="G111" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="B112" s="3" t="s">
+      <c r="B112" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="C112" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="D112" s="3" t="s">
+      <c r="C112" s="2">
+        <v>2</v>
+      </c>
+      <c r="D112" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="E112" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F112" s="3" t="s">
+      <c r="E112" s="3">
+        <v>1</v>
+      </c>
+      <c r="F112" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="G112" s="4">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="3" t="s">
+      <c r="G112" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="B113" s="3" t="s">
+      <c r="B113" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="C113" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D113" s="3" t="s">
+      <c r="C113" s="2">
+        <v>1</v>
+      </c>
+      <c r="D113" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="E113" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F113" s="3" t="s">
+      <c r="E113" s="3">
+        <v>1</v>
+      </c>
+      <c r="F113" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="G113" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="3" t="s">
+      <c r="G113" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="50" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="B114" s="3" t="s">
+      <c r="B114" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="C114" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D114" s="3" t="s">
+      <c r="C114" s="2">
+        <v>1</v>
+      </c>
+      <c r="D114" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="E114" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F114" s="3" t="s">
+      <c r="E114" s="3">
+        <v>2</v>
+      </c>
+      <c r="F114" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="G114" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="3" t="s">
+      <c r="G114" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="B115" s="3"/>
-      <c r="C115" s="3"/>
-      <c r="D115" s="3"/>
-      <c r="E115" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F115" s="3"/>
-      <c r="G115" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="3" t="s">
+      <c r="B115" s="2"/>
+      <c r="C115" s="2"/>
+      <c r="D115" s="2"/>
+      <c r="E115" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F115" s="2"/>
+      <c r="G115" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="25" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="B116" s="3" t="s">
+      <c r="B116" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="C116" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="D116" s="3" t="s">
+      <c r="C116" s="2">
+        <v>2</v>
+      </c>
+      <c r="D116" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="E116" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F116" s="3" t="s">
+      <c r="E116" s="3">
+        <v>1</v>
+      </c>
+      <c r="F116" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="G116" s="4">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="3" t="s">
+      <c r="G116" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A117" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="B117" s="3" t="s">
+      <c r="B117" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="C117" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D117" s="3" t="s">
+      <c r="C117" s="2">
+        <v>1</v>
+      </c>
+      <c r="D117" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="E117" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F117" s="3" t="s">
+      <c r="E117" s="3">
+        <v>1</v>
+      </c>
+      <c r="F117" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="G117" s="4">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="3" t="s">
+      <c r="G117" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="25" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="B118" s="3" t="s">
+      <c r="B118" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="C118" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="D118" s="3" t="s">
+      <c r="C118" s="2">
+        <v>2</v>
+      </c>
+      <c r="D118" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="E118" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F118" s="3" t="s">
+      <c r="E118" s="3">
+        <v>1</v>
+      </c>
+      <c r="F118" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="G118" s="4">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="3" t="s">
+      <c r="G118" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="B119" s="3" t="s">
+      <c r="B119" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="C119" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="D119" s="3" t="s">
+      <c r="C119" s="2">
+        <v>2</v>
+      </c>
+      <c r="D119" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="E119" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F119" s="3" t="s">
+      <c r="E119" s="3">
+        <v>2</v>
+      </c>
+      <c r="F119" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="G119" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="3" t="s">
+      <c r="G119" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" ht="25" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="B120" s="3" t="s">
+      <c r="B120" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="C120" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="D120" s="3" t="s">
+      <c r="C120" s="2">
+        <v>2</v>
+      </c>
+      <c r="D120" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="E120" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="F120" s="3" t="s">
+      <c r="E120" s="3">
+        <v>4</v>
+      </c>
+      <c r="F120" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="G120" s="4">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="3" t="s">
+      <c r="G120" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A121" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="B121" s="3" t="s">
+      <c r="B121" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="C121" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="D121" s="3" t="s">
+      <c r="C121" s="2">
+        <v>2</v>
+      </c>
+      <c r="D121" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="E121" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F121" s="3" t="s">
+      <c r="E121" s="3">
+        <v>1</v>
+      </c>
+      <c r="F121" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="G121" s="4">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="3" t="s">
+      <c r="G121" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="50" x14ac:dyDescent="0.25">
+      <c r="A122" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="B122" s="3" t="s">
+      <c r="B122" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="C122" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="D122" s="3" t="s">
+      <c r="C122" s="2">
+        <v>2</v>
+      </c>
+      <c r="D122" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="E122" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F122" s="3" t="s">
+      <c r="E122" s="3">
+        <v>1</v>
+      </c>
+      <c r="F122" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="G122" s="4">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="3" t="s">
+      <c r="G122" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="B123" s="3" t="s">
+      <c r="B123" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="C123" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="D123" s="3" t="s">
+      <c r="C123" s="2">
+        <v>2</v>
+      </c>
+      <c r="D123" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="E123" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F123" s="3" t="s">
+      <c r="E123" s="3">
+        <v>1</v>
+      </c>
+      <c r="F123" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="G123" s="4">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="3" t="s">
+      <c r="G123" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A124" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="B124" s="3"/>
-      <c r="C124" s="3"/>
-      <c r="D124" s="3"/>
-      <c r="E124" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F124" s="3"/>
-      <c r="G124" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="3" t="s">
+      <c r="B124" s="2"/>
+      <c r="C124" s="2"/>
+      <c r="D124" s="2"/>
+      <c r="E124" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F124" s="2"/>
+      <c r="G124" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A125" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="B125" s="3" t="s">
+      <c r="B125" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="C125" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="D125" s="3" t="s">
+      <c r="C125" s="2">
+        <v>2</v>
+      </c>
+      <c r="D125" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="E125" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F125" s="3" t="s">
+      <c r="E125" s="3">
+        <v>1</v>
+      </c>
+      <c r="F125" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="G125" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="3" t="s">
+      <c r="G125" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" ht="50" x14ac:dyDescent="0.25">
+      <c r="A126" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="B126" s="3" t="s">
+      <c r="B126" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="C126" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="D126" s="3" t="s">
+      <c r="C126" s="2">
+        <v>2</v>
+      </c>
+      <c r="D126" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="E126" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F126" s="3" t="s">
+      <c r="E126" s="3">
+        <v>1</v>
+      </c>
+      <c r="F126" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="G126" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="3" t="s">
+      <c r="G126" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A127" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="B127" s="3" t="s">
+      <c r="B127" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="C127" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D127" s="3" t="s">
+      <c r="C127" s="2">
+        <v>1</v>
+      </c>
+      <c r="D127" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="E127" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F127" s="3" t="s">
+      <c r="E127" s="3">
+        <v>1</v>
+      </c>
+      <c r="F127" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="G127" s="4">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="3" t="s">
+      <c r="G127" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A128" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="B128" s="3" t="s">
+      <c r="B128" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="C128" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="D128" s="3" t="s">
+      <c r="C128" s="2">
+        <v>2</v>
+      </c>
+      <c r="D128" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="E128" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F128" s="3" t="s">
+      <c r="E128" s="3">
+        <v>1</v>
+      </c>
+      <c r="F128" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="G128" s="4">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="3" t="s">
+      <c r="G128" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" ht="50" x14ac:dyDescent="0.25">
+      <c r="A129" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="B129" s="3" t="s">
+      <c r="B129" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="C129" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="D129" s="3" t="s">
+      <c r="C129" s="2">
+        <v>2</v>
+      </c>
+      <c r="D129" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="E129" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F129" s="3" t="s">
+      <c r="E129" s="3">
+        <v>1</v>
+      </c>
+      <c r="F129" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="G129" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="3" t="s">
+      <c r="G129" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A130" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="B130" s="3"/>
-      <c r="C130" s="3"/>
-      <c r="D130" s="3"/>
-      <c r="E130" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F130" s="3"/>
-      <c r="G130" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="3" t="s">
+      <c r="B130" s="2"/>
+      <c r="C130" s="2"/>
+      <c r="D130" s="2"/>
+      <c r="E130" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F130" s="2"/>
+      <c r="G130" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" ht="25" x14ac:dyDescent="0.25">
+      <c r="A131" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="B131" s="3" t="s">
+      <c r="B131" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="C131" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="D131" s="3" t="s">
+      <c r="C131" s="2">
+        <v>2</v>
+      </c>
+      <c r="D131" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="E131" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F131" s="3" t="s">
+      <c r="E131" s="3">
+        <v>1</v>
+      </c>
+      <c r="F131" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="G131" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="3" t="s">
+      <c r="G131" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" ht="25" x14ac:dyDescent="0.25">
+      <c r="A132" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="B132" s="3" t="s">
+      <c r="B132" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="C132" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="D132" s="3" t="s">
+      <c r="C132" s="2">
+        <v>2</v>
+      </c>
+      <c r="D132" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="E132" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F132" s="3" t="s">
+      <c r="E132" s="3">
+        <v>1</v>
+      </c>
+      <c r="F132" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="G132" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="3" t="s">
+      <c r="G132" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A133" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="B133" s="3" t="s">
+      <c r="B133" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="C133" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="D133" s="3" t="s">
+      <c r="C133" s="2">
+        <v>2</v>
+      </c>
+      <c r="D133" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="E133" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F133" s="3" t="s">
+      <c r="E133" s="3">
+        <v>1</v>
+      </c>
+      <c r="F133" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="G133" s="4">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="3" t="s">
+      <c r="G133" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" ht="25" x14ac:dyDescent="0.25">
+      <c r="A134" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="B134" s="3" t="s">
+      <c r="B134" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="C134" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="D134" s="3" t="s">
+      <c r="C134" s="2">
+        <v>2</v>
+      </c>
+      <c r="D134" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="E134" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F134" s="3" t="s">
+      <c r="E134" s="3">
+        <v>2</v>
+      </c>
+      <c r="F134" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="G134" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="3" t="s">
+      <c r="G134" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A135" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="B135" s="3" t="s">
+      <c r="B135" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="C135" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="D135" s="3" t="s">
+      <c r="C135" s="2">
+        <v>2</v>
+      </c>
+      <c r="D135" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="E135" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F135" s="3" t="s">
+      <c r="E135" s="3">
+        <v>1</v>
+      </c>
+      <c r="F135" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="G135" s="4">
-        <v>3.0</v>
+      <c r="G135" s="3">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>